--- a/Java/Zadanie5_MaslovAN/table_new.xlsx
+++ b/Java/Zadanie5_MaslovAN/table_new.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
     <t>id</t>
   </si>
@@ -29,13 +29,19 @@
     <t>result</t>
   </si>
   <si>
-    <t>Reverse</t>
+    <t>Отзеркалить</t>
   </si>
   <si>
-    <t>dfsdfdsfdddddddddddddddddddddsfdfsdfsdfsdfsdfdsfdsfsdfsdfds</t>
+    <t>Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua.</t>
   </si>
   <si>
-    <t>sdfdsfdsfsdfsdfdsfdsfdsfdsfdfsdddddddddddddddddddddfsdfdsfd</t>
+    <t>.auqila angam erolod te erobal tu tnudidicni ropmet domsuie od des ,tile gnicsipida rutetcesnoc ,tema tis rolod muspi meroL</t>
+  </si>
+  <si>
+    <t>Вставить в 65 позицию</t>
+  </si>
+  <si>
+    <t>Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eLorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua.iusmod tempor incididunt ut labore et dolore magna aliqua.</t>
   </si>
 </sst>
 </file>
@@ -80,17 +86,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="2.41796875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="8.8125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="53.26171875" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="14.8984375" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="53.26171875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="20.05859375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="100.5703125" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="100.5703125" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="200.2109375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -125,6 +131,23 @@
         <v>7</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="E3" t="s" s="0">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
